--- a/public/product-stock/product-stock-template.xlsx
+++ b/public/product-stock/product-stock-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIPI_LOL\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A726E6BD-FF8D-4724-ABB1-361B7A26FB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84E5374-E5A3-49AB-94DD-B02AFB4363EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -60,9 +60,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,12 +102,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,20 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="1023" max="1024" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="2" customWidth="1"/>
+    <col min="6" max="1022" width="8.625" style="2"/>
+    <col min="1023" max="1024" width="10.375" style="2" customWidth="1"/>
+    <col min="1025" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.85" customHeight="1">
@@ -442,12 +468,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="3"/>
+    </row>
     <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1"/>
     <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1"/>
+    <row r="13" spans="1:5">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
